--- a/Test_Matching.xlsx
+++ b/Test_Matching.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
   <si>
     <t>A_1</t>
   </si>
@@ -36,9 +38,6 @@
     <t>A_5</t>
   </si>
   <si>
-    <t>A_6</t>
-  </si>
-  <si>
     <t>Lizz_A</t>
   </si>
   <si>
@@ -55,13 +54,70 @@
   </si>
   <si>
     <t>A_3_short</t>
+  </si>
+  <si>
+    <t>perfect match</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>Lizz</t>
+  </si>
+  <si>
+    <t>Katrina</t>
+  </si>
+  <si>
+    <t>Kristin</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Audrey</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>person match but no word match</t>
+  </si>
+  <si>
+    <t>Alohamora vs testing_2</t>
+  </si>
+  <si>
+    <t>Alohamora vs aloplethora</t>
+  </si>
+  <si>
+    <t>no person or word match</t>
+  </si>
+  <si>
+    <t>d = lambda x,y: abs(np.dot(x,y))/(np.linalg.norm(x))</t>
+  </si>
+  <si>
+    <t>d = lambda x,y: (abs(np.dot(x,y)))/(((np.linalg.norm(x))*(np.linalg.norm(y))))</t>
+  </si>
+  <si>
+    <t>d = lambda x,y: (abs(np.dot(x,y)))/(((np.linalg.norm(x))+(np.linalg.norm(y))))</t>
+  </si>
+  <si>
+    <t>13 filters</t>
+  </si>
+  <si>
+    <t>21 filters</t>
+  </si>
+  <si>
+    <t>blank vs alohamora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,8 +141,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,8 +197,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -156,15 +237,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -177,6 +307,26 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -189,6 +339,26 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,15 +688,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" customHeight="1">
+    <row r="1" spans="1:12" ht="35" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -544,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -558,33 +728,43 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:12" ht="35" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>7988.2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="2">
+        <v>6204</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4461.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4816.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8557.2000000000007</v>
+      </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="H2" s="3">
+        <v>7970.7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>7621.2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5018.2</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="35" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -594,18 +774,29 @@
       <c r="C3" s="2">
         <v>6884.3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="2">
+        <v>4196.3999999999996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4734.7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7119.7</v>
+      </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="3">
+        <v>6260.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7163.4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4871.1000000000004</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="35" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -618,19 +809,22 @@
       <c r="D4" s="2">
         <v>4666.3999999999996</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="E4" s="2">
+        <v>4500.8999999999996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5467.5</v>
+      </c>
+      <c r="G4" s="2">
         <v>5184.6000000000004</v>
       </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="35" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -646,16 +840,17 @@
       <c r="E5" s="2">
         <v>4907.1000000000004</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>6969</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="35" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -675,16 +870,15 @@
         <v>13439.9</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" ht="35" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -693,19 +887,18 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="G7" s="2">
         <v>5437.1</v>
       </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" ht="35" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>7970.7</v>
@@ -722,19 +915,16 @@
       <c r="F8" s="3">
         <v>7876.1</v>
       </c>
-      <c r="G8" s="3">
-        <v>8799.2000000000007</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:12" ht="35" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>7621.2</v>
@@ -745,21 +935,22 @@
       <c r="D9" s="3">
         <v>7031.5</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>7399.7</v>
+      </c>
       <c r="F9" s="3">
         <v>8076</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" ht="35" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>5018.2</v>
@@ -776,19 +967,16 @@
       <c r="F10" s="3">
         <v>4600</v>
       </c>
-      <c r="G10" s="3">
-        <v>8143.9</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" ht="35" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -799,13 +987,12 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1">
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="35" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -817,8 +1004,1547 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="55.1640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="73.33203125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>4666.3736915700001</v>
+      </c>
+      <c r="B3" s="6">
+        <v>77.646197048299996</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2348.7467621599999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>6884.3491508500001</v>
+      </c>
+      <c r="B4" s="6">
+        <v>93.243407569699997</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3444.4947240800002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>13439.864906999999</v>
+      </c>
+      <c r="B5" s="6">
+        <v>149.609336824</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7047.1375203899997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>6031.2437401799998</v>
+      </c>
+      <c r="B7" s="6">
+        <v>68.1918019286</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2233.7144928600001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>5467.4487499899997</v>
+      </c>
+      <c r="B8" s="6">
+        <v>67.103467857699997</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2005.3107610100001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>7119.6638762000002</v>
+      </c>
+      <c r="B9" s="6">
+        <v>86.106765659900006</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2779.5695859799998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>6137.4522894000002</v>
+      </c>
+      <c r="B11" s="6">
+        <v>77.424901626899995</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2540.9963602399998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>6260.4876598800001</v>
+      </c>
+      <c r="B12" s="6">
+        <v>89.949127527599998</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2889.9143499900001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>7876.0554235600002</v>
+      </c>
+      <c r="B13" s="6">
+        <v>104.8048386</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3901.43208581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>7031.4766414799997</v>
+      </c>
+      <c r="B15" s="6">
+        <v>81.472610183300006</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2804.39613783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>7163.4382743200003</v>
+      </c>
+      <c r="B16" s="6">
+        <v>89.784962405900004</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3108.3709477000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>8076.0034301400001</v>
+      </c>
+      <c r="B17" s="6">
+        <v>101.808182046</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3936.9600424300002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5">
+        <v>5431.86300424</v>
+      </c>
+      <c r="B19" s="6">
+        <v>84.629661158999994</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2577.2894362799998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5">
+        <v>4871.0556313799998</v>
+      </c>
+      <c r="B20" s="6">
+        <v>71.918992703200004</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2362.16059051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5">
+        <v>4599.9136681199998</v>
+      </c>
+      <c r="B21" s="6">
+        <v>71.697982442200001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2209.0062982600002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5">
+        <v>4768.3898652199996</v>
+      </c>
+      <c r="B23" s="6">
+        <v>74.080754055100002</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2234.9337406599998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <v>5872.0497794299999</v>
+      </c>
+      <c r="B24" s="6">
+        <v>83.4232691614</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2705.5643696400002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5">
+        <v>4908.5203214599996</v>
+      </c>
+      <c r="B25" s="6">
+        <v>74.886034064399993</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2510.6354996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5">
+        <v>5479.6838598900003</v>
+      </c>
+      <c r="B26" s="6">
+        <v>80.744907946300003</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2652.1561908100002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5">
+        <v>6510.9337666700003</v>
+      </c>
+      <c r="B27" s="6">
+        <v>89.196956813499995</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2881.0333774300002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5">
+        <v>4739.4714113700002</v>
+      </c>
+      <c r="B28" s="6">
+        <v>77.430049518100006</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2448.79981069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5">
+        <v>7387.5148526200001</v>
+      </c>
+      <c r="B30" s="6">
+        <v>75.330461951700002</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2642.5877148599998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5">
+        <v>9684.43293447</v>
+      </c>
+      <c r="B31" s="6">
+        <v>99.7669518995</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3877.2894701800001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>8348.2532945799994</v>
+      </c>
+      <c r="B32" s="6">
+        <v>153.30216157300001</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4594.3767488800004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <v>5931.3852360999999</v>
+      </c>
+      <c r="B33" s="6">
+        <v>71.154603228200003</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2265.2515674699998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5">
+        <v>7595.0442644200002</v>
+      </c>
+      <c r="B34" s="6">
+        <v>91.027444228899995</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3134.7845357199999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <v>7486.9056464499999</v>
+      </c>
+      <c r="B35" s="6">
+        <v>128.20434407299999</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3984.1885982899998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5">
+        <v>5228.7973025800002</v>
+      </c>
+      <c r="B37" s="6">
+        <v>89.103219461400002</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2870.1266814800001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5">
+        <v>5833.1550679700003</v>
+      </c>
+      <c r="B38" s="6">
+        <v>113.631164381</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3293.0738725199999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5">
+        <v>5151.1652994799997</v>
+      </c>
+      <c r="B39" s="6">
+        <v>155.93548557400001</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3207.7465304299999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5">
+        <v>2977.57833613</v>
+      </c>
+      <c r="B40" s="6">
+        <v>40.748843667599999</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1143.30645901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5">
+        <v>4325.4861060200001</v>
+      </c>
+      <c r="B41" s="6">
+        <v>50.144506323800002</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1612.87327028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5">
+        <v>3035.2799517600001</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41.490592149900003</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1311.73352815</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5">
+        <v>4905.5220500900004</v>
+      </c>
+      <c r="B44" s="6">
+        <v>71.462762511600005</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2047.21444808</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="5">
+        <v>6477.2468172899999</v>
+      </c>
+      <c r="B45" s="6">
+        <v>92.820809287499998</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2897.9266759699999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="5">
+        <v>9516.7676978799991</v>
+      </c>
+      <c r="B46" s="6">
+        <v>126.114787471</v>
+      </c>
+      <c r="C46" s="6">
+        <v>5111.4937282700002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="5">
+        <v>5059.1996445799996</v>
+      </c>
+      <c r="B47" s="6">
+        <v>76.373508354600006</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2116.3887804999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5">
+        <v>5596.6237760699996</v>
+      </c>
+      <c r="B48" s="6">
+        <v>76.287720138400005</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2464.7753404700002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5">
+        <v>4500.4383244199998</v>
+      </c>
+      <c r="B49" s="6">
+        <v>64.456590406900006</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2018.2028815199999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5">
+        <v>3951.2885908500002</v>
+      </c>
+      <c r="B52" s="6">
+        <v>55.311510361400003</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1519.8791302100001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5">
+        <v>4345.4039940800003</v>
+      </c>
+      <c r="B53" s="6">
+        <v>69.829053486099994</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1927.5617874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5">
+        <v>3378.8136454199998</v>
+      </c>
+      <c r="B54" s="6">
+        <v>61.915026990999998</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1400.37268371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5">
+        <v>3600.8377026200001</v>
+      </c>
+      <c r="B56" s="6">
+        <v>60.625145169900001</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1605.84177742</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5">
+        <v>4272.7970225899999</v>
+      </c>
+      <c r="B57" s="6">
+        <v>66.935333467199996</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2056.8543270999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5">
+        <v>5588.0614644899997</v>
+      </c>
+      <c r="B58" s="6">
+        <v>78.535570593000003</v>
+      </c>
+      <c r="C58" s="6">
+        <v>2803.1893774499999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5">
+        <v>4811.6217875800003</v>
+      </c>
+      <c r="B61" s="6">
+        <v>66.118763541800007</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1936.89394782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5">
+        <v>5495.0649409799998</v>
+      </c>
+      <c r="B62" s="6">
+        <v>68.540650015300002</v>
+      </c>
+      <c r="C62" s="6">
+        <v>2376.0287767099999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5">
+        <v>5575.0016960499997</v>
+      </c>
+      <c r="B63" s="6">
+        <v>67.891358906199997</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2666.8778133599999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="5">
+        <v>4018.3452420200001</v>
+      </c>
+      <c r="B65" s="6">
+        <v>60.956585895899998</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1525.91762954</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="5">
+        <v>4186.2063900599996</v>
+      </c>
+      <c r="B66" s="6">
+        <v>58.291732875599997</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1808.40335536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="5">
+        <v>3298.93399877</v>
+      </c>
+      <c r="B67" s="6">
+        <v>47.678993042899997</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1354.60855206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="5">
+        <v>3283.2320646899998</v>
+      </c>
+      <c r="B69" s="6">
+        <v>53.608311138399998</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1476.16233304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="5">
+        <v>3944.43660447</v>
+      </c>
+      <c r="B70" s="6">
+        <v>58.967746694699997</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1897.0144699699999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5">
+        <v>3960.60951819</v>
+      </c>
+      <c r="B71" s="6">
+        <v>56.7442200216</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1874.6130072599999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5">
+        <v>4744.80191225</v>
+      </c>
+      <c r="B73" s="6">
+        <v>65.594155778100003</v>
+      </c>
+      <c r="C73" s="6">
+        <v>2095.71052263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5">
+        <v>5254.9546519799997</v>
+      </c>
+      <c r="B74" s="6">
+        <v>72.788144053500005</v>
+      </c>
+      <c r="C74" s="6">
+        <v>2424.6093029600002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5">
+        <v>5088.30187363</v>
+      </c>
+      <c r="B75" s="6">
+        <v>69.594567816899996</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2519.7789842000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7">
+        <v>242.86091260699999</v>
+      </c>
+      <c r="B7" s="6">
+        <v>390.49047582399999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7">
+        <v>228.00539870899999</v>
+      </c>
+      <c r="B8" s="6">
+        <v>365.76187158099998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7">
+        <v>280.84410735699998</v>
+      </c>
+      <c r="B9" s="6">
+        <v>365.24560056000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7">
+        <v>210.92428304200001</v>
+      </c>
+      <c r="B11" s="6">
+        <v>417.09248462099998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7">
+        <v>185.32455000499999</v>
+      </c>
+      <c r="B12" s="6">
+        <v>299.35218621799999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7">
+        <v>220.969083877</v>
+      </c>
+      <c r="B13" s="6">
+        <v>360.411798842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7">
+        <v>269.847811761</v>
+      </c>
+      <c r="B15" s="6">
+        <v>440.17518402299999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7">
+        <v>310.57365457100002</v>
+      </c>
+      <c r="B16" s="6">
+        <v>379.93243194299998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7">
+        <v>250.22946865399999</v>
+      </c>
+      <c r="B17" s="6">
+        <v>383.93737586999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7">
+        <v>167.13154242799999</v>
+      </c>
+      <c r="B19" s="6">
+        <v>275.15348301500001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7">
+        <v>263.605988293</v>
+      </c>
+      <c r="B20" s="6">
+        <v>322.07487981499997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7">
+        <v>221.55438052900001</v>
+      </c>
+      <c r="B21" s="6">
+        <v>378.02206809099999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7">
+        <v>278.78768086299999</v>
+      </c>
+      <c r="B23" s="6">
+        <v>597.51469652599997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7">
+        <v>254.74098457400001</v>
+      </c>
+      <c r="B24" s="6">
+        <v>464.50918968899998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7">
+        <v>177.45015729900001</v>
+      </c>
+      <c r="B25" s="6">
+        <v>501.49828372899998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7">
+        <v>258.33115670699999</v>
+      </c>
+      <c r="B26" s="6">
+        <v>612.33185057000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7">
+        <v>225.66559815299999</v>
+      </c>
+      <c r="B27" s="6">
+        <v>482.01826874900001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7">
+        <v>181.29061621400001</v>
+      </c>
+      <c r="B28" s="6">
+        <v>651.81536613799994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="7">
+        <v>317.56003588800002</v>
+      </c>
+      <c r="B30" s="6">
+        <v>455.10358816799999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7">
+        <v>233.93245295700001</v>
+      </c>
+      <c r="B31" s="6">
+        <v>369.50868335000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7">
+        <v>243.89230247200001</v>
+      </c>
+      <c r="B32" s="6">
+        <v>410.86736417399999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7">
+        <v>285.89249457300002</v>
+      </c>
+      <c r="B33" s="6">
+        <v>445.817013465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7">
+        <v>246.80003642899999</v>
+      </c>
+      <c r="B34" s="6">
+        <v>430.59372711100002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7">
+        <v>235.959840759</v>
+      </c>
+      <c r="B35" s="6">
+        <v>401.00804602300002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="7">
+        <v>271.41815515500002</v>
+      </c>
+      <c r="B37" s="6">
+        <v>429.93468498700003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7">
+        <v>216.27816642499999</v>
+      </c>
+      <c r="B38" s="6">
+        <v>331.43721995499999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7">
+        <v>203.56913527699999</v>
+      </c>
+      <c r="B39" s="6">
+        <v>470.98168741000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7">
+        <v>307.01396741500002</v>
+      </c>
+      <c r="B40" s="6">
+        <v>414.14338677799998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7">
+        <v>251.30264763</v>
+      </c>
+      <c r="B41" s="6">
+        <v>370.56791032400002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7">
+        <v>205.37627267900001</v>
+      </c>
+      <c r="B42" s="6">
+        <v>420.25976919700003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7">
+        <v>281.96292472300001</v>
+      </c>
+      <c r="B44" s="6">
+        <v>449.86562011799998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7">
+        <v>184.40237511199999</v>
+      </c>
+      <c r="B45" s="6">
+        <v>326.74764936399998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7">
+        <v>328.46168136</v>
+      </c>
+      <c r="B46" s="6">
+        <v>548.72893624999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7">
+        <v>279.29530093099999</v>
+      </c>
+      <c r="B47" s="6">
+        <v>448.645579897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="7">
+        <v>287.07140672899999</v>
+      </c>
+      <c r="B48" s="6">
+        <v>400.40285854199999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="7">
+        <v>257.52071205800002</v>
+      </c>
+      <c r="B49" s="6">
+        <v>407.31913279100002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="7">
+        <v>394.34227668400001</v>
+      </c>
+      <c r="B52" s="6">
+        <v>536.12442289700004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="7">
+        <v>424.545670298</v>
+      </c>
+      <c r="B53" s="6">
+        <v>508.23447668199998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="7">
+        <v>362.35641179200002</v>
+      </c>
+      <c r="B54" s="6">
+        <v>563.78237789399998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="7">
+        <v>427.84719555599997</v>
+      </c>
+      <c r="B56" s="6">
+        <v>481.33520772399999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="7">
+        <v>449.03153491699999</v>
+      </c>
+      <c r="B57" s="6">
+        <v>411.54131133099997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="7">
+        <v>571.73890586799996</v>
+      </c>
+      <c r="B58" s="6">
+        <v>499.63018486700003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7">
+        <v>376.76439648299998</v>
+      </c>
+      <c r="B61" s="6">
+        <v>500.269105685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7">
+        <v>410.43259886800001</v>
+      </c>
+      <c r="B62" s="6">
+        <v>404.66455745299999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="7">
+        <v>491.04806357000001</v>
+      </c>
+      <c r="B63" s="6">
+        <v>455.427978752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="7">
+        <v>384.33472968500001</v>
+      </c>
+      <c r="B65" s="6">
+        <v>452.11957956100002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="7">
+        <v>504.05048876900003</v>
+      </c>
+      <c r="B66" s="6">
+        <v>477.37294776700003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="7">
+        <v>449.09406075499999</v>
+      </c>
+      <c r="B67" s="6">
+        <v>471.83398421099997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="7">
+        <v>278.70273760100002</v>
+      </c>
+      <c r="B69" s="6">
+        <v>366.73578187800001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="7">
+        <v>348.35090296099997</v>
+      </c>
+      <c r="B70" s="6">
+        <v>378.79478726600001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="7">
+        <v>391.20629047400001</v>
+      </c>
+      <c r="B71" s="6">
+        <v>401.65798433700002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="7">
+        <v>340.667377714</v>
+      </c>
+      <c r="B73" s="6">
+        <v>435.55015698599999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="7">
+        <v>376.82288062200001</v>
+      </c>
+      <c r="B74" s="6">
+        <v>411.299085284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="7">
+        <v>469.89142346400001</v>
+      </c>
+      <c r="B75" s="6">
+        <v>446.14787077699998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="6">
+        <v>512.49396410300005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="6">
+        <v>557.35779393400003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="6">
+        <v>549.03440757600004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="6">
+        <v>330.03844694700001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6">
+        <v>454.54383102600002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6">
+        <v>397.198345297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="6">
+        <v>222.30612980500001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="6">
+        <v>421.96613252499998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6">
+        <v>438.88869203799999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6">
+        <v>340.59858256000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6">
+        <v>536.09013870399997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6">
+        <v>537.35486330599997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
